--- a/user_input_files/planillas-web/UPS.xlsx
+++ b/user_input_files/planillas-web/UPS.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="UPS" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>ID UPS</t>
   </si>
@@ -67,12 +67,36 @@
     <t>UPS-002</t>
   </si>
   <si>
+    <t>UPS-003</t>
+  </si>
+  <si>
+    <t>UPS-004</t>
+  </si>
+  <si>
+    <t>UBI-006</t>
+  </si>
+  <si>
+    <t>UBI-007</t>
+  </si>
+  <si>
+    <t>UBI-004</t>
+  </si>
+  <si>
     <t>APC Smart-UPS SC 1500VA</t>
   </si>
   <si>
     <t>Tripp Lite 1000VA</t>
   </si>
   <si>
+    <t>Smart-UPS 1000</t>
+  </si>
+  <si>
+    <t>Smart-UPS 2200</t>
+  </si>
+  <si>
+    <t>Back-UPS 700</t>
+  </si>
+  <si>
     <t>APC</t>
   </si>
   <si>
@@ -85,37 +109,100 @@
     <t>GAB-CFT-1</t>
   </si>
   <si>
+    <t>GAB-004</t>
+  </si>
+  <si>
+    <t>GAB-005</t>
+  </si>
+  <si>
+    <t>GAB-006</t>
+  </si>
+  <si>
     <t>Edificio O - 3er Piso - Sala Técnica</t>
   </si>
   <si>
     <t>CFT Prat - Sala Servidores</t>
   </si>
   <si>
+    <t>Campus Pucón - Recepción</t>
+  </si>
+  <si>
+    <t>CFT Prat - Sala servidores</t>
+  </si>
+  <si>
+    <t>Edificio L - 2do Piso</t>
+  </si>
+  <si>
     <t>Andrés Bello</t>
   </si>
   <si>
+    <t>Campus Pucón</t>
+  </si>
+  <si>
+    <t>Campus Angol</t>
+  </si>
+  <si>
+    <t>Campus Principal</t>
+  </si>
+  <si>
     <t>Operativo</t>
   </si>
   <si>
+    <t>Activo</t>
+  </si>
+  <si>
     <t>2023-03-15</t>
   </si>
   <si>
     <t>2023-05-20</t>
   </si>
   <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-05-12</t>
+  </si>
+  <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
     <t>11 cámaras Edificio O + 1 cámara PTZ</t>
   </si>
   <si>
     <t>13 cámaras CFT Prat</t>
   </si>
   <si>
+    <t>1 Switch + 5 cámaras</t>
+  </si>
+  <si>
+    <t>2 Switches + 1 NVR + 13 cámaras</t>
+  </si>
+  <si>
+    <t>1 Switch + 8 cámaras</t>
+  </si>
+  <si>
     <t>2024-10-13</t>
   </si>
   <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
     <t>Cambio de batería realizado el 13/10/2024. Sistema funcionó con batería restante durante cambio.</t>
   </si>
   <si>
     <t>Programar revisión de baterías</t>
+  </si>
+  <si>
+    <t>Protección básica</t>
+  </si>
+  <si>
+    <t>Punto crítico - UPS redundante</t>
+  </si>
+  <si>
+    <t>Pendiente primera mantención</t>
   </si>
 </sst>
 </file>
@@ -473,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,10 +618,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1500</v>
@@ -543,31 +630,31 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N2">
         <v>45000</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -575,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -587,25 +674,160 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>25000</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>2200</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5">
+        <v>65000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="E6">
+        <v>700</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
